--- a/data/metadata.xlsx
+++ b/data/metadata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityhealthnetwork-my.sharepoint.com/personal/emma_bell_uhnresearch_ca/Documents/Projects/02_Submitted/2020_LooBell_NatureMedicine/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98618F51-CB75-094E-AAF5-AD73ED78382D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{98618F51-CB75-094E-AAF5-AD73ED78382D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8FF51981-9AD0-7149-8584-EF1A527E7559}"/>
   <bookViews>
-    <workbookView xWindow="37660" yWindow="2260" windowWidth="27640" windowHeight="16940" xr2:uid="{8098B32F-899C-864D-A40B-B974A9C6386F}"/>
+    <workbookView xWindow="3180" yWindow="1020" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{8098B32F-899C-864D-A40B-B974A9C6386F}"/>
   </bookViews>
   <sheets>
     <sheet name="RRBS" sheetId="1" r:id="rId1"/>
+    <sheet name="ATAC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>H1</t>
   </si>
@@ -93,6 +94,39 @@
   </si>
   <si>
     <t>Donor ID (simple)</t>
+  </si>
+  <si>
+    <t>Donor</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Donor61_stimulated_treated.narrowPeak</t>
+  </si>
+  <si>
+    <t>Donor61_unstimulated_untreated.narrowPeak</t>
+  </si>
+  <si>
+    <t>Donor61_stimulated_untreated.narrowPeak</t>
+  </si>
+  <si>
+    <t>Donor70_unstimulated_untreated.narrowPeak</t>
+  </si>
+  <si>
+    <t>Donor70_stimulated_untreated.narrowPeak</t>
+  </si>
+  <si>
+    <t>Donor70_stimulated_treated.narrowPeak</t>
+  </si>
+  <si>
+    <t>Donor71_unstimulated_untreated.narrowPeak</t>
+  </si>
+  <si>
+    <t>Donor71_stimulated_untreated.narrowPeak</t>
+  </si>
+  <si>
+    <t>Donor71_stimulated_treated.narrowPeak</t>
   </si>
 </sst>
 </file>
@@ -161,6 +195,22 @@
     <tableColumn id="3" xr3:uid="{629416D1-C0E4-AC44-AC89-69FDEAF2A2E1}" name="Donor ID (simple)"/>
     <tableColumn id="4" xr3:uid="{E88885FF-08D3-F741-A747-0E2936742F6D}" name="Stimulated"/>
     <tableColumn id="5" xr3:uid="{0760876B-B9B3-F64B-8C7F-A0775045BD2A}" name="DAC"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{569738A9-CF51-264E-BAB2-557244D71843}" name="Table2" displayName="Table2" ref="A1:D10" totalsRowShown="0">
+  <autoFilter ref="A1:D10" xr:uid="{03B9F244-300A-8C43-82AF-36C383C4D9A3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D10">
+    <sortCondition ref="B1:B10"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{96BA2B96-B3CB-804D-8412-71FF4535E91F}" name="File"/>
+    <tableColumn id="2" xr3:uid="{9FD5BC55-6BF7-4E40-89BD-398268190BB4}" name="Donor"/>
+    <tableColumn id="3" xr3:uid="{4E0D881C-2B8B-C849-8199-C925DD9380EB}" name="Stimulated"/>
+    <tableColumn id="4" xr3:uid="{258361B5-7629-884F-95EE-E7C96922CDA9}" name="DAC"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -465,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A72CDEA-F026-7641-BB53-1C2C1D23D39F}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -654,4 +704,166 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A69FB6-F2F2-1C4E-A6AD-2D5E1602C2C7}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/data/metadata.xlsx
+++ b/data/metadata.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityhealthnetwork-my.sharepoint.com/personal/emma_bell_uhnresearch_ca/Documents/Projects/02_Submitted/2020_LooBell_NatureMedicine/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{98618F51-CB75-094E-AAF5-AD73ED78382D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8FF51981-9AD0-7149-8584-EF1A527E7559}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{98618F51-CB75-094E-AAF5-AD73ED78382D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E32BD881-D08E-CB41-A1F3-782C0088D870}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1020" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{8098B32F-899C-864D-A40B-B974A9C6386F}"/>
+    <workbookView xWindow="3180" yWindow="1020" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{8098B32F-899C-864D-A40B-B974A9C6386F}"/>
   </bookViews>
   <sheets>
     <sheet name="RRBS" sheetId="1" r:id="rId1"/>
     <sheet name="ATAC" sheetId="2" r:id="rId2"/>
+    <sheet name="RNAseq" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="40">
   <si>
     <t>H1</t>
   </si>
@@ -127,13 +128,40 @@
   </si>
   <si>
     <t>Donor71_stimulated_treated.narrowPeak</t>
+  </si>
+  <si>
+    <t>Donor25_Day0</t>
+  </si>
+  <si>
+    <t>Donor25_Day5s</t>
+  </si>
+  <si>
+    <t>Donor25_Day5s_AZA</t>
+  </si>
+  <si>
+    <t>Donor28_Day0</t>
+  </si>
+  <si>
+    <t>Donor28_Day5s</t>
+  </si>
+  <si>
+    <t>Donor28_Day5s_AZA</t>
+  </si>
+  <si>
+    <t>Donor57_Day0</t>
+  </si>
+  <si>
+    <t>Donor57_Day5s</t>
+  </si>
+  <si>
+    <t>Donor57_Day5s_AZA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,18 +169,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -162,14 +233,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -190,7 +355,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A89914B0-83E4-AE49-B1FD-3747ED861E6B}" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
   <autoFilter ref="A1:E10" xr:uid="{6ED62828-FE23-234E-8369-B2014C6AED8A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{296A6FEA-67B3-6F46-96AB-887B265B4573}" name="Sequencing ID" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{296A6FEA-67B3-6F46-96AB-887B265B4573}" name="Sequencing ID" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{9F930D91-7C22-CD47-B3E0-BB9CFAD9D861}" name="Donor ID"/>
     <tableColumn id="3" xr3:uid="{629416D1-C0E4-AC44-AC89-69FDEAF2A2E1}" name="Donor ID (simple)"/>
     <tableColumn id="4" xr3:uid="{E88885FF-08D3-F741-A747-0E2936742F6D}" name="Stimulated"/>
@@ -211,6 +376,20 @@
     <tableColumn id="2" xr3:uid="{9FD5BC55-6BF7-4E40-89BD-398268190BB4}" name="Donor"/>
     <tableColumn id="3" xr3:uid="{4E0D881C-2B8B-C849-8199-C925DD9380EB}" name="Stimulated"/>
     <tableColumn id="4" xr3:uid="{258361B5-7629-884F-95EE-E7C96922CDA9}" name="DAC"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{08E504CB-48BD-5C45-9CEB-0A5CCD24C179}" name="Table3" displayName="Table3" ref="A1:E10" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="3">
+  <autoFilter ref="A1:E10" xr:uid="{E99DDC67-12E5-7F4F-A4AF-FC6D45D9CA83}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2A5DD51B-75F7-414F-9D70-511B21A56BAC}" name="File"/>
+    <tableColumn id="2" xr3:uid="{29BE057B-AC7B-3846-AE23-F9523CDA8980}" name="Donor"/>
+    <tableColumn id="5" xr3:uid="{7ECF2D24-2D6D-1841-A283-9ECB559FFB83}" name="Donor ID (simple)"/>
+    <tableColumn id="3" xr3:uid="{0D17C130-91F4-AF43-9181-29BA7787D7A1}" name="Stimulated" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{6D5BF5B3-8411-D541-BDB6-8FBDA661FDB7}" name="DAC" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -516,7 +695,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A69FB6-F2F2-1C4E-A6AD-2D5E1602C2C7}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -866,4 +1045,197 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46BA5FB-928B-2841-B9C8-D3D232277D14}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/data/metadata.xlsx
+++ b/data/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityhealthnetwork-my.sharepoint.com/personal/emma_bell_uhnresearch_ca/Documents/Projects/02_Submitted/2020_LooBell_NatureMedicine/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{98618F51-CB75-094E-AAF5-AD73ED78382D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E32BD881-D08E-CB41-A1F3-782C0088D870}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{98618F51-CB75-094E-AAF5-AD73ED78382D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C61B44F5-3D9C-DE46-B774-39B5CE3BF47A}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1020" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{8098B32F-899C-864D-A40B-B974A9C6386F}"/>
+    <workbookView xWindow="3180" yWindow="1020" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{8098B32F-899C-864D-A40B-B974A9C6386F}"/>
   </bookViews>
   <sheets>
     <sheet name="RRBS" sheetId="1" r:id="rId1"/>
@@ -695,7 +695,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -865,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -889,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A69FB6-F2F2-1C4E-A6AD-2D5E1602C2C7}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D10"/>
     </sheetView>
   </sheetViews>
@@ -1051,7 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46BA5FB-928B-2841-B9C8-D3D232277D14}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
